--- a/Practicos/practico5.xlsx
+++ b/Practicos/practico5.xlsx
@@ -4,15 +4,61 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18720" windowHeight="8265"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="18720" windowHeight="8265" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>e)</t>
+  </si>
+  <si>
+    <t>k es la medida de la rapidez del resorte</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>no entendi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>incompleto</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,7 +390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
@@ -353,12 +401,50 @@
   <legacyDrawing r:id="rId1"/>
   <oleObjects>
     <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId2"/>
+    <oleObject progId="Equation.DSMT4" shapeId="1027" r:id="rId3"/>
+    <oleObject progId="Equation.DSMT4" shapeId="1028" r:id="rId4"/>
+    <oleObject progId="Equation.DSMT4" shapeId="1029" r:id="rId5"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Equation.DSMT4" shapeId="2049" r:id="rId2"/>
+    <oleObject progId="Equation.DSMT4" shapeId="2050" r:id="rId3"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -366,14 +452,178 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Equation.DSMT4" shapeId="3073" r:id="rId2"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B9:B44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Equation.DSMT4" shapeId="4097" r:id="rId2"/>
+    <oleObject progId="Equation.DSMT4" shapeId="4098" r:id="rId3"/>
+    <oleObject progId="Equation.DSMT4" shapeId="4099" r:id="rId4"/>
+    <oleObject progId="Equation.DSMT4" shapeId="4100" r:id="rId5"/>
+    <oleObject progId="Equation.DSMT4" shapeId="4101" r:id="rId6"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Equation.DSMT4" shapeId="5121" r:id="rId2"/>
+    <oleObject progId="Equation.DSMT4" shapeId="5122" r:id="rId3"/>
+    <oleObject progId="Equation.DSMT4" shapeId="5124" r:id="rId4"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Equation.DSMT4" shapeId="6145" r:id="rId2"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Equation.DSMT4" shapeId="7169" r:id="rId2"/>
+    <oleObject progId="Equation.DSMT4" shapeId="7170" r:id="rId3"/>
+    <oleObject progId="Equation.DSMT4" shapeId="7171" r:id="rId4"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
